--- a/4_final_report/components/receiver_list.xlsx
+++ b/4_final_report/components/receiver_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Documents/bac3/info-2055-em-project/git/4_final_report/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCADE43-94BE-0848-84BA-A78F5C2D3482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E44893-090C-CF43-91B6-AAC22BF8978F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20440" xr2:uid="{01417B18-2681-9D41-A75F-27C69C86DAA7}"/>
   </bookViews>
@@ -225,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,13 +233,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -559,7 +578,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,271 +590,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -844,5 +881,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>